--- a/DOM_Banner/output/dept_banner/Donald Perry_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,538 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sami El‐Dalati, Daniel Cronin, James Riddell, Michael J. Shea, Richard L. Weinberg, Laraine Washer, Emily Stoneman, D. Alexander Perry, Suzanne F. Bradley, James F. Burke, Sadhana Murali, Christopher Fagan, Rishi Chanderraj, Paul J. Christine, Twisha S Patel, Kirra Ressler, Shinichi Fukuhara, Matthew A. Romano, Bo Yang, G. Michael Deeb</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3133989950</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The Clinical Impact of Implementation of a Multidisciplinary Endocarditis Team</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5051079098", "https://openalex.org/A5061912619", "https://openalex.org/A5090986941", "https://openalex.org/A5084856551", "https://openalex.org/A5011662749", "https://openalex.org/A5013723626", "https://openalex.org/A5030737464", "https://openalex.org/A5026668665", "https://openalex.org/A5040287013", "https://openalex.org/A5020983805", "https://openalex.org/A5015153063", "https://openalex.org/A5073093751", "https://openalex.org/A5056098334", "https://openalex.org/A5075315423", 
-"https://openalex.org/A5034336322", "https://openalex.org/A5060491414", "https://openalex.org/A5050102860", "https://openalex.org/A5015627507", "https://openalex.org/A5002717804", "https://openalex.org/A5028606740"), au_display_name = c("Sami El‐Dalati", "Daniel Cronin", "James Riddell", "Michael J. Shea", "Richard L. Weinberg", "Laraine Washer", "Emily Stoneman", "D. Alexander Perry", "Suzanne F. Bradley", "James F. Burke", "Sadhana Murali", "Christopher Fagan", "Rishi Chanderraj", "Paul J. Christine", 
-"Twisha S Patel", "Kirra Ressler", "Shinichi Fukuhara", "Matthew A. Romano", "Bo Yang", "G. Michael Deeb"), au_orcid = c("https://orcid.org/0000-0003-2603-2951", NA, NA, NA, "https://orcid.org/0000-0001-8563-1554", NA, "https://orcid.org/0000-0003-2474-826X", NA, "https://orcid.org/0000-0001-5542-6138", "https://orcid.org/0000-0002-2296-1588", "https://orcid.org/0009-0001-1304-4577", NA, "https://orcid.org/0000-0001-8081-5258", NA, NA, NA, "https://orcid.org/0000-0002-7898-5159", NA, "https://orcid.org/0000-0002-2158-9155", 
-"https://orcid.org/0000-0002-4698-2789"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine - University of Michigan, Ann Arbor, Michigan.", "Department of Internal Medicine, Division of Hospital Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", 
-"Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Cardiology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Cardiology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", 
-"Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Neurology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Neurology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", 
-"Department of Internal Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Internal Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "College of Pharmacy, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", 
-"Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan", "Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan"), institution_id = c("https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", 
-"https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", 
-"https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445"), institution_display_name = c("Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", "Michigan Medicine", 
-"Michigan Medicine", "Michigan Medicine"), institution_ror = c("https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", 
-"https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714", "https://ror.org/01zcpa714"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", 
-"healthcare", "healthcare", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", 
-"https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445", "https://openalex.org/I4210114445"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Infectious endocarditis is associated with substantial in-hospital mortality of 15%-20%. Effective management requires coordination between multiple medical and surgical subspecialties, which can often lead to disjointed care. Previous European studies have identified multidisciplinary endocarditis teams as a tool for reducing endocarditis mortality.The multidisciplinary endocarditis team was formed in May 2018. The group developed an evidence-based algorithm for management of endocarditis that was used to provide recommendations for hospitalized patients over a 1-year period. Mortality outcomes were then retroactively assessed and compared to a historical control utilizing propensity matching.Between June 2018 and June 2019 the team provided guideline-based recommendations on 56 patients with Duke Criteria-definite endocarditis and at least 1 American Heart Association indication for surgery. The historical control included 68 patients with definite endocarditis and surgical indications admitted between July 1, 2014, and June 30, 2015. In-hospital mortality decreased significantly from 29.4% in 2014-2015 to 7.1% in 2018-2019 (P &lt; .0001). There was a non-significant increase in the rate of surgical intervention after implementation of the team (41.2% vs 55.4%; P = 0.12). Propensity score matching demonstrated similar results.Implementation of a multidisciplinary endocarditis team was associated with a significant 1-year decrease in all-cause in-hospital mortality for patients with definite endocarditis and surgical indications, in the presence of notable differences between the 2 studied cohorts. In conjunction with previous studies demonstrating their effectiveness, these data support the idea that widespread adoption of endocarditis teams in North America could improve outcomes for this patient population.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>The Annals of Thoracic Surgery</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The Annals of Thoracic Surgery</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S144860794</t>
+          <t>https://doi.org/10.1016/j.athoracsur.2021.02.027</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0003-4975</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/33662308</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.athoracsur.2021.02.027</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://europepmc.org/articles/pmc7777539?pdf=render</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3133989950</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W3133989950", doi = "https://doi.org/10.1016/j.athoracsur.2021.02.027", mag = "3133989950", pmid = "https://pubmed.ncbi.nlm.nih.gov/33662308")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.athoracsur.2021.02.027</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1515789586", "https://openalex.org/W1552757577", "https://openalex.org/W1905008412", "https://openalex.org/W1920355337", "https://openalex.org/W1992590064", "https://openalex.org/W2025007587", "https://openalex.org/W2031680145", "https://openalex.org/W2107515115", "https://openalex.org/W2111037045", "https://openalex.org/W2112238035", "https://openalex.org/W2117744797", "https://openalex.org/W2138096026", "https://openalex.org/W2145476985", "https://openalex.org/W2156451821", 
-"https://openalex.org/W2159579132", "https://openalex.org/W2166377714", "https://openalex.org/W2223150550", "https://openalex.org/W2548772973", "https://openalex.org/W2780467673", "https://openalex.org/W2902842760", "https://openalex.org/W2912250712", "https://openalex.org/W2971700655", "https://openalex.org/W2995874304")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3196761963", "https://openalex.org/W213628847", "https://openalex.org/W2036193982", "https://openalex.org/W2065417422", "https://openalex.org/W4253956144", "https://openalex.org/W18685692", "https://openalex.org/W2418059528", "https://openalex.org/W2026576563", "https://openalex.org/W3023923059", "https://openalex.org/W2002787743")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Jeffrey Berinstein, Claudia Steiner, Samara Rifkin, D. Alexander Perry, Dejan Micic, Daniel Shirley, Peter Higgins, Vincent B. Young, Allen Lee, Krishna Rao</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281386915</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A Predictive Model to Identify Complicated &lt;i&gt;Clostridiodes difficile&lt;/i&gt; Infection</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5085948854", "https://openalex.org/A5078667532", "https://openalex.org/A5046951092", "https://openalex.org/A5026668665", "https://openalex.org/A5042178093", "https://openalex.org/A5015480621", "https://openalex.org/A5068100543", "https://openalex.org/A5005333977", "https://openalex.org/A5054426393", "https://openalex.org/A5021859030"), au_display_name = c("Jeffrey Berinstein", "Claudia Steiner", "Samara Rifkin", "D. Alexander Perry", "Dejan Micic", "Daniel Shirley", 
-"Peter Higgins", "Vincent B. Young", "Allen Lee", "Krishna Rao"), au_orcid = c("https://orcid.org/0000-0001-7631-9665", "https://orcid.org/0000-0002-1964-010X", "https://orcid.org/0000-0002-6015-7232", NA, "https://orcid.org/0000-0003-2864-1670", "https://orcid.org/0000-0002-7901-7512", "https://orcid.org/0000-0003-1602-4341", "https://orcid.org/0000-0003-3687-2364", "https://orcid.org/0000-0002-4861-7646", "https://orcid.org/0000-0002-9213-7850"), author_position = c("first", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI", "Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine, Aurora, Colorado; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus, Aurora, Colorado", "Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI", "Division of Infectious Diseases, University of Arizona, Tucson AZ", 
-"Division of Gastroenterology and Hepatology, University of Chicago, Chicago, IL", "Division of Infectious Diseases, University of Wisconsin, Madison, WI", "Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI", "Division of Infectious Diseases, University of Michigan, Ann Arbor, MI", "Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI", "Division of Infectious Diseases, University of Michigan, Ann Arbor, MI"), institution_id = c("https://openalex.org/I27837315", 
-"https://openalex.org/I51713134", "https://openalex.org/I27837315", "https://openalex.org/I138006243", "https://openalex.org/I40347166", "https://openalex.org/I135310074", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315"), institution_display_name = c("University of Michigan–Ann Arbor", "University of Colorado Anschutz Medical Campus", "University of Michigan–Ann Arbor", "University of Arizona", "University of Chicago", 
-"University of Wisconsin–Madison", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor", "University of Michigan–Ann Arbor"), institution_ror = c("https://ror.org/00jmfr291", "https://ror.org/03wmf1y16", "https://ror.org/00jmfr291", "https://ror.org/03m2x1q45", "https://ror.org/024mw5h28", "https://ror.org/01y2jtd41", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291", "https://ror.org/00jmfr291"), 
-    institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I27837315", "https://openalex.org/I2802236040, https://openalex.org/I51713134", "https://openalex.org/I27837315", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I40347166", 
-    "https://openalex.org/I1304256225, https://openalex.org/I135310074", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315", "https://openalex.org/I27837315"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abstract Background Clostridioides difficile infection (CDI) is a leading cause of healthcare-associated infections and may result in organ dysfunction, colectomy, and death. We recently showed that published risk scores to predict severe complications from CDI demonstrate poor performance upon external validation. We hypothesized that building and validating a model using geographically and temporally distinct cohorts would more accurately identify patients at risk for complicated CDI. Methods We conducted a multi-center retrospective cohort study of adult subjects diagnosed with CDI in the US. After randomly partitioning the data into training/validation set, we developed and compared three machine learning algorithms (Lasso regression, random forest, stacked ensemble models) with 10-fold cross-validation that used structured EHR data collected within 48 hours of CDI diagnosis to predict disease-related complications from CDI (intensive care unit admission, colectomy, or death attributable to CDI within 30 days of diagnosis). Model performance was assessed using area under the receiver operating curve (AUC). Results A total of 3,762 patients with CDI were included of which 218 (5.8%) had complications. Lasso regression, random forest, and stacked ensemble models all performed well with AUC ranging between 0.89-0.9. Variables of importance were similar across models, including albumin, bicarbonate, change in creatinine, systolic blood pressure, non-CDI-related ICU admission, and concomitant non-CDI antibiotics. Sensitivity analyses indicated that model performance was robust even when varying derivation cohort inclusion and CDI testing approach. Conclusion Using a large heterogeneous population of patients, we have developed and validated a prediction model based on structured EHR data that accurately estimates risk for complications from CDI. Key Points Machine learning models using structured electronic health records can be leveraged to accurately predict risk of severe complications related to Clostridiodes difficile infection, including intensive care unit admission, colectomy, and/or death.</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400573</t>
+          <t>https://doi.org/10.1101/2022.05.18.22275113</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1101/2022.05.18.22275113</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/05/22/2022.05.18.22275113.full.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/05/22/2022.05.18.22275113.full.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4281386915</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4281386915", doi = "https://doi.org/10.1101/2022.05.18.22275113")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2022.05.18.22275113</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1973139630", "https://openalex.org/W2011542551", "https://openalex.org/W2017617820", "https://openalex.org/W2035454322", "https://openalex.org/W2064186732", "https://openalex.org/W2071054182", "https://openalex.org/W2081532768", "https://openalex.org/W2090779061", "https://openalex.org/W2093653075", "https://openalex.org/W2122825543", "https://openalex.org/W2138105286", "https://openalex.org/W2141019052", "https://openalex.org/W2148012646", "https://openalex.org/W2153155854", 
-"https://openalex.org/W2156065644", "https://openalex.org/W2167412689", "https://openalex.org/W2317798302", "https://openalex.org/W2331696210", "https://openalex.org/W2791326569", "https://openalex.org/W2808708645", "https://openalex.org/W2936708417", "https://openalex.org/W2973709813", "https://openalex.org/W2986606263", "https://openalex.org/W2990535154", "https://openalex.org/W3091942970", "https://openalex.org/W3102476541", "https://openalex.org/W3198566262")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4376129292", "https://openalex.org/W2804210803", "https://openalex.org/W2907716967", "https://openalex.org/W3215703789", "https://openalex.org/W4366090909", "https://openalex.org/W2998656135", "https://openalex.org/W1980410354", "https://openalex.org/W2510914644", "https://openalex.org/W2901634660", "https://openalex.org/W4234215969")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Donald Perry_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Donald Perry_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine - University of Michigan, Ann Arbor, Michigan.; Department of Internal Medicine, Division of Hospital Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Cardiology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Cardiology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Neurology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Neurology, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Division of Infectious Diseases, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Internal Medicine, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; College of Pharmacy, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan; Department of Cardiac Surgery, Michigan Medicine – University of Michigan, Ann Arbor, Michigan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3133989950</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Clinical Impact of Implementation of a Multidisciplinary Endocarditis Team</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Annals of Thoracic Surgery</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2021.02.027</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/33662308</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2021.02.027</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI; Department of Medicine and the Mucosal Inflammation Program, University of Colorado School of Medicine, Aurora, Colorado; Division of Gastroenterology and Hepatology, University of Colorado Anschutz Medical Campus, Aurora, Colorado; Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI; Division of Infectious Diseases, University of Arizona, Tucson AZ; Division of Gastroenterology and Hepatology, University of Chicago, Chicago, IL; Division of Infectious Diseases, University of Wisconsin, Madison, WI; Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI; Division of Infectious Diseases, University of Michigan, Ann Arbor, MI; Division of Gastroenterology and Hepatology, University of Michigan, Ann Arbor, MI; Division of Infectious Diseases, University of Michigan, Ann Arbor, MI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281386915</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A Predictive Model to Identify Complicated &lt;i&gt;Clostridiodes difficile&lt;/i&gt; Infection</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.18.22275113</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.18.22275113</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
